--- a/data/cases_data.xlsx
+++ b/data/cases_data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhyoon\Desktop\MyApp\digitalviolence\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04179F38-AB27-4A06-9655-C13C44E7D792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="12300" yWindow="2410" windowWidth="14150" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="판례"/>
+    <sheet name="판례" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -28,52 +34,54 @@
     <t>판결일</t>
   </si>
   <si>
-    <t>대법원 2021도2313888</t>
-  </si>
-  <si>
-    <t>불법촬영물 유포 관련</t>
-  </si>
-  <si>
-    <t>동의 없이 촬영된 영상물을 유포한 경우 성폭력처벌법 위반으로 처벌받는다는 판결</t>
-  </si>
-  <si>
-    <t>2021-04-29</t>
-  </si>
-  <si>
-    <t>대법원 2020도16761</t>
-  </si>
-  <si>
-    <t>몰래카메라 촬영 관련</t>
-  </si>
-  <si>
-    <t>화장실 탈의실 등에서의 불법촬영에 대한 처벌 기준을 명확히 한 판결</t>
-  </si>
-  <si>
-    <t>2021-01-14</t>
-  </si>
-  <si>
-    <t>서울고등법원 2020노2045</t>
-  </si>
-  <si>
-    <t>텔레그램 성착취 관련</t>
-  </si>
-  <si>
-    <t>온라인 성착취 범죄의 조직성과 지속성을 인정하여 중형을 선고한 판결</t>
-  </si>
-  <si>
-    <t>2020-11-26</t>
+    <t>2023도11395</t>
+  </si>
+  <si>
+    <t>아동·청소년의성보호에관한법률위반(성착취물소지등)·성폭력범죄의처벌등에관한특례법위반(카메라등이용촬영물소지등)</t>
+  </si>
+  <si>
+    <t>전자정보 압수수색에서 혐의사실과 시간·유형·수법이 밀접한 디지털 성범죄 관련 전자정보는 객관적 관련성이 인정되어 적법하게 압수될 수 있다고 보아 원심을 파기환송.</t>
+  </si>
+  <si>
+    <t>2024도14039</t>
+  </si>
+  <si>
+    <t>성폭력범죄의처벌등에관한특례법위반(촬영물등이용협박)</t>
+  </si>
+  <si>
+    <t>‘촬영물등이용협박’죄는 피해자를 대상으로 한 실제 촬영물 등을 방편으로 협박해야 성립하며, 피해자 아닌 타인 촬영물로 협박한 경우 성립하지 않는다고 보아 상고기각(무죄 유지).</t>
+  </si>
+  <si>
+    <t>2024도16133</t>
+  </si>
+  <si>
+    <t>성폭력범죄의처벌등에관한특례법위반(카메라등이용촬영·반포등)[예비: 카메라등이용촬영물소지등], 상해, 재물손괴</t>
+  </si>
+  <si>
+    <t>영상통화 중 본인이 비춘 신체 영상은 제14조 제2항 전단의 ‘제1항에 따른 촬영물’은 아니나 후단의 촬영물에는 해당할 수 있고, 상대방이 이를 녹화·저장한 동영상은 ‘복제물’이 될 수 있으나, 제14조 제4항의 ‘소지’는 제1항 또는 제2항에 따라 처벌대상이 되는 촬영물 등에 한정된다고 보아 일부 무죄 판단을 유지하며 상고기각.</t>
+  </si>
+  <si>
+    <t>2024도19106</t>
+  </si>
+  <si>
+    <t>준강제추행·성폭력범죄의처벌등에관한특례법위반(카메라등이용촬영·반포등)·감금·강간·스토킹범죄의처벌등에관한법률위반·협박</t>
+  </si>
+  <si>
+    <t>피압수자인 피의자의 변호인에게 휴대전화 전자정보 압수·수색 과정 참여 기회를 원칙적으로 보장해야 하나, 이 사건에서는 증거능력을 부정할 정도의 중대한 하자는 아니라고 보아 원심을 수긍(상고기각).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -82,6 +90,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,25 +135,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -149,10 +165,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -190,71 +206,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -282,7 +298,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -305,11 +321,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -318,13 +334,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -334,7 +350,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -343,7 +359,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -352,7 +368,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -360,10 +376,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -428,23 +444,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" style="3" width="56.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="3" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.58203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
+    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,53 +471,68 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45820</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45813</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C5" t="s">
         <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45771</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>